--- a/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
+++ b/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/fraxinus_latifolia/GBS_rangewide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB2B18-1FFE-3847-8A72-63CD9C83B98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA73F09-1F98-C54D-B691-24AB9E2D957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="660" windowWidth="19780" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="19780" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -908,7 +908,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,8 +926,8 @@
         <v>0</v>
       </c>
       <c r="E1" s="6">
-        <f xml:space="preserve"> 530*1.2</f>
-        <v>636</v>
+        <f xml:space="preserve"> 560*1.2</f>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
       </c>
       <c r="C3" s="9">
         <f>1.15*E1</f>
-        <v>731.4</v>
+        <v>772.8</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="C4" s="11">
         <f>0.6*E1</f>
-        <v>381.59999999999997</v>
+        <v>403.2</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="C5" s="11">
         <f>0.6 * E1</f>
-        <v>381.59999999999997</v>
+        <v>403.2</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="C6" s="11">
         <f>0.25*E1</f>
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C7" s="11">
         <f>0.12*E1</f>
-        <v>76.319999999999993</v>
+        <v>80.64</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C8" s="14">
         <f>0.28*E1</f>
-        <v>178.08</v>
+        <v>188.16000000000003</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C3:C9)</f>
-        <v>1907.9999999999998</v>
+        <v>2016.0000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C11" s="4">
         <f>C10/12</f>
-        <v>158.99999999999997</v>
+        <v>168.00000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1077,10 +1077,7 @@
       </c>
       <c r="C15" s="11">
         <f>B15*E1</f>
-        <v>636</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,10 +1089,7 @@
       </c>
       <c r="C16" s="11">
         <f>B16*E1</f>
-        <v>45.791999999999994</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>48.383999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,10 +1101,7 @@
       </c>
       <c r="C17" s="11">
         <f>B17*E1</f>
-        <v>63.6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1122,11 +1113,9 @@
       </c>
       <c r="C18" s="11">
         <f>B18*E1</f>
-        <v>31.8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>33.6</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1137,10 +1126,7 @@
       </c>
       <c r="C19" s="11">
         <f>B19*E1</f>
-        <v>31.8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1152,10 +1138,7 @@
       </c>
       <c r="C20" s="14">
         <f>B20*E1</f>
-        <v>106.53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
+        <v>112.56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,7 +1150,7 @@
       </c>
       <c r="C22" s="4">
         <f>SUM(C15:C20)</f>
-        <v>915.52199999999993</v>
+        <v>967.34400000000005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,7 +1159,7 @@
       </c>
       <c r="C23" s="4">
         <f>C22/12</f>
-        <v>76.293499999999995</v>
+        <v>80.612000000000009</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1222,10 +1205,7 @@
       </c>
       <c r="C29" s="11">
         <f>B29*E1</f>
-        <v>6150.12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+        <v>6498.24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,10 +1217,7 @@
       </c>
       <c r="C30" s="11">
         <f>4*E1</f>
-        <v>2544</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,10 +1229,7 @@
       </c>
       <c r="C31" s="11">
         <f>B31*E1</f>
-        <v>254.4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1267,10 +1241,7 @@
       </c>
       <c r="C32" s="11">
         <f>B32*E1</f>
-        <v>254.4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1282,11 +1253,9 @@
       </c>
       <c r="C33" s="11">
         <f>B33*E1</f>
-        <v>845.88</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>45</v>
-      </c>
+        <v>893.76</v>
+      </c>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1297,7 +1266,7 @@
       </c>
       <c r="C34" s="11">
         <f>B34*E1</f>
-        <v>127.2</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,10 +1278,7 @@
       </c>
       <c r="C35" s="11">
         <f>B35*E1</f>
-        <v>95.399999999999991</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1333,7 +1299,7 @@
       </c>
       <c r="C38" s="4">
         <f>SUM(C29:C37)</f>
-        <v>10271.399999999998</v>
+        <v>10852.799999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,7 +1342,7 @@
       </c>
       <c r="C44" s="11">
         <f>E$1*B44</f>
-        <v>270.3</v>
+        <v>285.59999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1354,7 @@
       </c>
       <c r="C45" s="11">
         <f>E$1*B45</f>
-        <v>254.4</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,7 +1366,7 @@
       </c>
       <c r="C46" s="11">
         <f>E$1*B46</f>
-        <v>845.88</v>
+        <v>893.76</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,7 +1375,7 @@
       </c>
       <c r="C47" s="4">
         <f>SUM(C44:C46)</f>
-        <v>1370.58</v>
+        <v>1448.1599999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1421,15 +1387,15 @@
       </c>
       <c r="C48">
         <f>C47/12</f>
-        <v>114.21499999999999</v>
+        <v>120.67999999999999</v>
       </c>
       <c r="D48" s="1">
         <f>C48 * (3/7)</f>
-        <v>48.949285714285708</v>
+        <v>51.719999999999992</v>
       </c>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>65.265714285714282</v>
+        <v>68.959999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1451,7 +1417,7 @@
       </c>
       <c r="B53" s="21">
         <f>C3+C17</f>
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>36</v>
@@ -1472,7 +1438,7 @@
       </c>
       <c r="B54" s="21">
         <f>C18+C4</f>
-        <v>413.4</v>
+        <v>436.8</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>29</v>
@@ -1491,7 +1457,7 @@
       </c>
       <c r="B55" s="21">
         <f>C5+C19</f>
-        <v>413.4</v>
+        <v>436.8</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>30</v>
@@ -1510,7 +1476,7 @@
       </c>
       <c r="B56" s="21">
         <f>C29+C16+C6</f>
-        <v>6354.9120000000003</v>
+        <v>6714.6239999999998</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>31</v>
@@ -1529,7 +1495,7 @@
       </c>
       <c r="B57" s="21">
         <f>C7</f>
-        <v>76.319999999999993</v>
+        <v>80.64</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>32</v>
@@ -1548,7 +1514,7 @@
       </c>
       <c r="B58" s="21">
         <f>C8</f>
-        <v>178.08</v>
+        <v>188.16000000000003</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>33</v>
@@ -1567,7 +1533,7 @@
       </c>
       <c r="B59" s="21">
         <f>C15</f>
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>34</v>
@@ -1586,7 +1552,7 @@
       </c>
       <c r="B60" s="21">
         <f>C20</f>
-        <v>106.53</v>
+        <v>112.56</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>42</v>
@@ -1604,7 +1570,7 @@
       </c>
       <c r="B61" s="21">
         <f>C30+C44</f>
-        <v>2814.3</v>
+        <v>2973.6</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>43</v>
@@ -1625,7 +1591,7 @@
       </c>
       <c r="B62" s="21">
         <f>C31+C45</f>
-        <v>508.8</v>
+        <v>537.6</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1600,7 @@
       </c>
       <c r="B63" s="21">
         <f>C32</f>
-        <v>254.4</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1609,7 @@
       </c>
       <c r="B64" s="21">
         <f>C33+C46</f>
-        <v>1691.76</v>
+        <v>1787.52</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1618,7 @@
       </c>
       <c r="B65" s="21">
         <f>C34</f>
-        <v>127.2</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1661,7 +1627,7 @@
       </c>
       <c r="B66" s="21">
         <f>C35</f>
-        <v>95.399999999999991</v>
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>

--- a/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
+++ b/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/fraxinus_latifolia/GBS_rangewide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA73F09-1F98-C54D-B691-24AB9E2D957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01AA361-3D9F-D24A-9E42-C7A152F88ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="19780" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="660" windowWidth="19780" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,6 +1079,9 @@
         <f>B15*E1</f>
         <v>672</v>
       </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1091,6 +1094,9 @@
         <f>B16*E1</f>
         <v>48.383999999999993</v>
       </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -1103,6 +1109,9 @@
         <f>B17*E1</f>
         <v>67.2</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1115,7 +1124,9 @@
         <f>B18*E1</f>
         <v>33.6</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1128,6 +1139,9 @@
         <f>B19*E1</f>
         <v>33.6</v>
       </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1139,6 +1153,9 @@
       <c r="C20" s="14">
         <f>B20*E1</f>
         <v>112.56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1207,6 +1224,9 @@
         <f>B29*E1</f>
         <v>6498.24</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -1219,6 +1239,9 @@
         <f>4*E1</f>
         <v>2688</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1231,6 +1254,9 @@
         <f>B31*E1</f>
         <v>268.8</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1243,6 +1269,9 @@
         <f>B32*E1</f>
         <v>268.8</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1255,7 +1284,9 @@
         <f>B33*E1</f>
         <v>893.76</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1279,6 +1310,9 @@
       <c r="C35" s="11">
         <f>B35*E1</f>
         <v>100.8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
+++ b/GBS_rangewide/FRAXTWO_RFseq_mastermixcockatils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/fraxinus_latifolia/GBS_rangewide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01AA361-3D9F-D24A-9E42-C7A152F88ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C432713-C9AA-7B45-AB28-85B2FF32F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="660" windowWidth="19780" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,6 +1299,9 @@
         <f>B34*E1</f>
         <v>134.4</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
@@ -1378,6 +1381,9 @@
         <f>E$1*B44</f>
         <v>285.59999999999997</v>
       </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -1390,6 +1396,9 @@
         <f>E$1*B45</f>
         <v>268.8</v>
       </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -1401,6 +1410,9 @@
       <c r="C46" s="11">
         <f>E$1*B46</f>
         <v>893.76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
